--- a/UseCaseIScenarij/Registracija.xlsx
+++ b/UseCaseIScenarij/Registracija.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Registracija</t>
   </si>
@@ -56,18 +56,12 @@
     <t>Glavni tok</t>
   </si>
   <si>
-    <t>Prosirenje/Alternative</t>
-  </si>
-  <si>
     <t>Potvrda registracije/unesenih podataka</t>
   </si>
   <si>
     <t>Ukoliko su uneseni podaci validni kreira se korisnicki racun</t>
   </si>
   <si>
-    <t>Ukoliko uneseni podaci nisu validni vrsi se ponovni unos podataka</t>
-  </si>
-  <si>
     <t>Korisnik aplikacija</t>
   </si>
   <si>
@@ -83,15 +77,6 @@
     <t>unaprijedi na VIP korisnika koji ima jos neke dodatne privilegije</t>
   </si>
   <si>
-    <t>pregleda najnovijih pjesama,</t>
-  </si>
-  <si>
-    <t>tab, u tom slucaju opet ima pravo pretrage pjesama, preslusavanja,</t>
-  </si>
-  <si>
-    <t>pregleda najpopularnijih pjesama</t>
-  </si>
-  <si>
     <t>Korisnik aplikacije</t>
   </si>
   <si>
@@ -125,31 +110,25 @@
     <t>Registracija (MusicBox App)</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Korisnik odustaje od registracije </t>
-  </si>
-  <si>
-    <t>i vraca se nazad na glavni dio</t>
-  </si>
-  <si>
-    <t>aplikacije</t>
-  </si>
-  <si>
-    <t>2. Korisnik pretrazuje pjesme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. Sistem pristupa bazi podataka i </t>
-  </si>
-  <si>
-    <t>daje rezultate pretrage</t>
-  </si>
-  <si>
-    <t>4. korisnik slusa pjesmu</t>
-  </si>
-  <si>
-    <t>Pokrenuta aplikacija</t>
-  </si>
-  <si>
-    <t>Recimo da korisnik odluci prekinuti registraciju i vrati se na prethodni</t>
+    <t>Korisnik odustaje od regstracije i vraca se nazad na glavni tab gdje moze</t>
+  </si>
+  <si>
+    <t>da radi sto i svaki guest korisnik</t>
+  </si>
+  <si>
+    <t>Prosirenje/Alternativa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Korisnik odustaje od </t>
+  </si>
+  <si>
+    <t xml:space="preserve">registracije i vraca se nazad na </t>
+  </si>
+  <si>
+    <t>glavni dio aplikacije</t>
+  </si>
+  <si>
+    <t>Uneseni podaci su nevalidni, (ponovo se vrsi unos/vracanje na glavni tab)</t>
   </si>
 </sst>
 </file>
@@ -326,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -352,6 +331,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -634,17 +614,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.5703125" customWidth="1"/>
-    <col min="2" max="2" width="66" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" customWidth="1"/>
-    <col min="5" max="5" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="64.85546875" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -679,7 +659,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -730,7 +710,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -748,7 +728,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -766,7 +746,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -784,7 +764,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -802,7 +782,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -820,7 +800,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -836,13 +816,13 @@
     <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -850,59 +830,55 @@
         <v>9</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="9" t="s">
-        <v>41</v>
+      <c r="A15" s="9"/>
+      <c r="B15" s="17" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14" t="s">
-        <v>20</v>
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14" t="s">
-        <v>19</v>
-      </c>
+      <c r="A17" s="11"/>
+      <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C25" s="9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" s="20" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -910,86 +886,78 @@
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C28" s="10"/>
       <c r="D28" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E28" s="17"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C29" s="18"/>
       <c r="D29" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E29" s="13"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C30" s="19"/>
+      <c r="C30" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="E30" s="4"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="20" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C34" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="17"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C35" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="12"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C36" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="13"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C37" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="4"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C38" s="11"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="12" t="s">
-        <v>37</v>
-      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C39" s="18"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="13" t="s">
-        <v>38</v>
-      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C40" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="4"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
